--- a/lists_version2.xlsx
+++ b/lists_version2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B8D98-CDE7-43D6-A516-E9A3B986FC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B3DE70-3F4D-419F-82B2-23DB73212BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13716" yWindow="744" windowWidth="11628" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
